--- a/Datasets/comic_dataset_1.xlsx
+++ b/Datasets/comic_dataset_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noell\PycharmProjects\superheroes\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787203B8-E1A3-45D4-A656-E6ACF1B068DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AF7502-4FC0-4DFD-9095-A14907FB7AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$1:$S$121</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="165">
   <si>
     <t>Property</t>
   </si>
@@ -207,27 +207,6 @@
     <t>Immortality</t>
   </si>
   <si>
-    <t>Magic/Mystic Powers</t>
-  </si>
-  <si>
-    <t>Super Strength</t>
-  </si>
-  <si>
-    <t>Super Speed</t>
-  </si>
-  <si>
-    <t>Healing Factor</t>
-  </si>
-  <si>
-    <t>Telekinesis/Telepathy</t>
-  </si>
-  <si>
-    <t>Ability to Alter Space/Time/Reality</t>
-  </si>
-  <si>
-    <t>Combat Skills</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
@@ -456,12 +435,6 @@
     <t>Android</t>
   </si>
   <si>
-    <t>Innate Powers</t>
-  </si>
-  <si>
-    <t>Use of Combative Weapons</t>
-  </si>
-  <si>
     <t>Neither</t>
   </si>
   <si>
@@ -471,15 +444,9 @@
     <t>Demon</t>
   </si>
   <si>
-    <t>Ability to Alter Matter/Energy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Green Latern (John Stewart) </t>
   </si>
   <si>
-    <t>Magical or Powerful Weapons/Items</t>
-  </si>
-  <si>
     <t>Entity</t>
   </si>
   <si>
@@ -492,34 +459,70 @@
     <t>Drax the Destroyer</t>
   </si>
   <si>
-    <t>Beyond Omega</t>
-  </si>
-  <si>
     <t>Loki</t>
   </si>
   <si>
     <t>Maria Hill</t>
   </si>
   <si>
-    <t>Superhuman</t>
-  </si>
-  <si>
-    <t>Above Superhuman</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Athlete</t>
-  </si>
-  <si>
     <t>Lightning</t>
   </si>
   <si>
-    <t>nonspecified</t>
-  </si>
-  <si>
-    <t>Use of Enhanced Tech</t>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Innate_Powers</t>
+  </si>
+  <si>
+    <t>Magic_Or_Mystic_Powers</t>
+  </si>
+  <si>
+    <t>Use_of_Enhanced_Tech</t>
+  </si>
+  <si>
+    <t>Use_of_Combative_Weapons</t>
+  </si>
+  <si>
+    <t>Magical_or_Powerful_Weapons_Items</t>
+  </si>
+  <si>
+    <t>Super_Strength</t>
+  </si>
+  <si>
+    <t>Combat_Skills</t>
+  </si>
+  <si>
+    <t>Super_Speed</t>
+  </si>
+  <si>
+    <t>Healing_Factor</t>
+  </si>
+  <si>
+    <t>Telekinesis_Telepathy</t>
+  </si>
+  <si>
+    <t>Ability_to_Alter_Matter_or_Energy</t>
+  </si>
+  <si>
+    <t>Ability_to_Alter_Space_Time_Reality</t>
+  </si>
+  <si>
+    <t>Power_Score</t>
   </si>
 </sst>
 </file>
@@ -871,11 +874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S10" sqref="S10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T1" sqref="F1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,9 +899,10 @@
     <col min="17" max="17" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -918,928 +922,931 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" t="s">
         <v>163</v>
       </c>
-      <c r="J1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" t="s">
-        <v>64</v>
-      </c>
       <c r="S1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="T1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" t="s">
         <v>146</v>
       </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
         <v>129</v>
       </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>136</v>
-      </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
         <v>129</v>
       </c>
-      <c r="D12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" t="s">
         <v>136</v>
       </c>
-      <c r="F12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" t="s">
-        <v>140</v>
-      </c>
-      <c r="L12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" t="s">
-        <v>140</v>
-      </c>
-      <c r="N12" t="s">
-        <v>140</v>
-      </c>
-      <c r="O12" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>139</v>
-      </c>
-      <c r="R12" t="s">
-        <v>139</v>
-      </c>
-      <c r="S12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
         <v>130</v>
       </c>
-      <c r="D15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
         <v>130</v>
       </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>137</v>
-      </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1847,58 +1854,58 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S17" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1906,58 +1913,58 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1965,58 +1972,58 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>136</v>
-      </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S19" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2024,58 +2031,58 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2083,58 +2090,58 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" t="s">
         <v>129</v>
       </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>136</v>
-      </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S21" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2142,58 +2149,58 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S22" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2201,58 +2208,58 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2260,58 +2267,58 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S24" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2319,58 +2326,58 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -2378,58 +2385,58 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S26" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -2437,58 +2444,58 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" t="s">
         <v>131</v>
       </c>
-      <c r="E27" t="s">
-        <v>138</v>
-      </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S27" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -2496,58 +2503,58 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S28" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2555,58 +2562,58 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S29" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -2614,58 +2621,58 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S30" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -2673,58 +2680,58 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S31" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -2732,58 +2739,58 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S32" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -2791,58 +2798,58 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S33" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -2850,58 +2857,58 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S34" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -2909,58 +2916,58 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
         <v>130</v>
       </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s">
-        <v>137</v>
-      </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I35" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M35" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S35" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -2968,58 +2975,58 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
         <v>130</v>
       </c>
-      <c r="D36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" t="s">
-        <v>137</v>
-      </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S36" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -3027,58 +3034,58 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
         <v>130</v>
       </c>
-      <c r="D37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" t="s">
-        <v>137</v>
-      </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J37" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M37" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -3086,58 +3093,58 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S38" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -3145,58 +3152,58 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M39" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S39" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -3204,58 +3211,58 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S40" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -3263,58 +3270,58 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
         <v>129</v>
       </c>
-      <c r="D41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" t="s">
+        <v>133</v>
+      </c>
+      <c r="N41" t="s">
+        <v>133</v>
+      </c>
+      <c r="O41" t="s">
+        <v>133</v>
+      </c>
+      <c r="P41" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>132</v>
+      </c>
+      <c r="R41" t="s">
+        <v>133</v>
+      </c>
+      <c r="S41" t="s">
         <v>136</v>
-      </c>
-      <c r="F41" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" t="s">
-        <v>139</v>
-      </c>
-      <c r="I41" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" t="s">
-        <v>140</v>
-      </c>
-      <c r="K41" t="s">
-        <v>139</v>
-      </c>
-      <c r="L41" t="s">
-        <v>139</v>
-      </c>
-      <c r="M41" t="s">
-        <v>140</v>
-      </c>
-      <c r="N41" t="s">
-        <v>140</v>
-      </c>
-      <c r="O41" t="s">
-        <v>140</v>
-      </c>
-      <c r="P41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>139</v>
-      </c>
-      <c r="R41" t="s">
-        <v>140</v>
-      </c>
-      <c r="S41" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -3322,58 +3329,58 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S42" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -3381,58 +3388,58 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H43" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q43" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S43" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -3440,58 +3447,58 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I44" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M44" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S44" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -3499,58 +3506,58 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S45" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -3558,117 +3565,117 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" t="s">
         <v>130</v>
       </c>
-      <c r="D46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" t="s">
-        <v>137</v>
-      </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S46" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q47" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S47" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -3676,58 +3683,58 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q48" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S48" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -3735,117 +3742,117 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S49" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
         <v>129</v>
       </c>
-      <c r="D50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" t="s">
-        <v>136</v>
-      </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S50" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -3853,58 +3860,58 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
         <v>129</v>
       </c>
-      <c r="D51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" t="s">
-        <v>136</v>
-      </c>
       <c r="F51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S51" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -3912,58 +3919,58 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M52" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S52" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -3971,58 +3978,58 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S53" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -4030,58 +4037,58 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S54" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -4089,58 +4096,58 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S55" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -4148,2005 +4155,2005 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
         <v>130</v>
       </c>
-      <c r="D56" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" t="s">
-        <v>137</v>
-      </c>
       <c r="F56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J56" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S56" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S57" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" t="s">
         <v>128</v>
       </c>
-      <c r="C58" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" t="s">
-        <v>135</v>
-      </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S58" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S59" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S60" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S61" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G62" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M62" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q62" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S62" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S63" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M64" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q64" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S64" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S65" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S66" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S67" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S68" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" t="s">
         <v>129</v>
       </c>
-      <c r="D69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" t="s">
-        <v>136</v>
-      </c>
       <c r="F69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S69" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O70" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R70" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S71" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" t="s">
         <v>129</v>
       </c>
-      <c r="D72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" t="s">
-        <v>136</v>
-      </c>
       <c r="F72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S72" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S73" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" t="s">
         <v>131</v>
       </c>
-      <c r="E74" t="s">
-        <v>138</v>
-      </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S74" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S75" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s">
         <v>131</v>
       </c>
-      <c r="E76" t="s">
-        <v>138</v>
-      </c>
       <c r="F76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" t="s">
+        <v>132</v>
+      </c>
+      <c r="H77" t="s">
+        <v>133</v>
+      </c>
+      <c r="I77" t="s">
+        <v>133</v>
+      </c>
+      <c r="J77" t="s">
+        <v>133</v>
+      </c>
+      <c r="K77" t="s">
+        <v>133</v>
+      </c>
+      <c r="L77" t="s">
+        <v>132</v>
+      </c>
+      <c r="M77" t="s">
+        <v>132</v>
+      </c>
+      <c r="N77" t="s">
+        <v>133</v>
+      </c>
+      <c r="O77" t="s">
+        <v>133</v>
+      </c>
+      <c r="P77" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>132</v>
+      </c>
+      <c r="R77" t="s">
+        <v>132</v>
+      </c>
+      <c r="S77" t="s">
         <v>150</v>
-      </c>
-      <c r="F77" t="s">
-        <v>140</v>
-      </c>
-      <c r="G77" t="s">
-        <v>139</v>
-      </c>
-      <c r="H77" t="s">
-        <v>140</v>
-      </c>
-      <c r="I77" t="s">
-        <v>140</v>
-      </c>
-      <c r="J77" t="s">
-        <v>140</v>
-      </c>
-      <c r="K77" t="s">
-        <v>140</v>
-      </c>
-      <c r="L77" t="s">
-        <v>139</v>
-      </c>
-      <c r="M77" t="s">
-        <v>139</v>
-      </c>
-      <c r="N77" t="s">
-        <v>140</v>
-      </c>
-      <c r="O77" t="s">
-        <v>140</v>
-      </c>
-      <c r="P77" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>139</v>
-      </c>
-      <c r="R77" t="s">
-        <v>139</v>
-      </c>
-      <c r="S77" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G78" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M78" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q78" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S78" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G79" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O79" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q79" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" t="s">
         <v>129</v>
       </c>
-      <c r="D80" t="s">
-        <v>132</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" t="s">
+        <v>133</v>
+      </c>
+      <c r="I80" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K80" t="s">
+        <v>133</v>
+      </c>
+      <c r="L80" t="s">
+        <v>132</v>
+      </c>
+      <c r="M80" t="s">
+        <v>132</v>
+      </c>
+      <c r="N80" t="s">
+        <v>132</v>
+      </c>
+      <c r="O80" t="s">
+        <v>132</v>
+      </c>
+      <c r="P80" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>133</v>
+      </c>
+      <c r="R80" t="s">
+        <v>132</v>
+      </c>
+      <c r="S80" t="s">
         <v>136</v>
-      </c>
-      <c r="F80" t="s">
-        <v>140</v>
-      </c>
-      <c r="G80" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" t="s">
-        <v>140</v>
-      </c>
-      <c r="I80" t="s">
-        <v>140</v>
-      </c>
-      <c r="J80" t="s">
-        <v>140</v>
-      </c>
-      <c r="K80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L80" t="s">
-        <v>139</v>
-      </c>
-      <c r="M80" t="s">
-        <v>139</v>
-      </c>
-      <c r="N80" t="s">
-        <v>139</v>
-      </c>
-      <c r="O80" t="s">
-        <v>139</v>
-      </c>
-      <c r="P80" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>140</v>
-      </c>
-      <c r="R80" t="s">
-        <v>139</v>
-      </c>
-      <c r="S80" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" t="s">
         <v>129</v>
       </c>
-      <c r="D81" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" t="s">
-        <v>136</v>
-      </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S81" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S82" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G83" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M83" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S83" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I84" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J84" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M84" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S84" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J85" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M85" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P85" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S85" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E86" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S86" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" t="s">
         <v>131</v>
       </c>
-      <c r="E87" t="s">
-        <v>138</v>
-      </c>
       <c r="F87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S87" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
         <v>131</v>
       </c>
-      <c r="E88" t="s">
-        <v>138</v>
-      </c>
       <c r="F88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S88" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S89" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
@@ -6154,1891 +6161,1891 @@
         <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S90" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" t="s">
         <v>130</v>
       </c>
-      <c r="D91" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" t="s">
-        <v>137</v>
-      </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I91" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J91" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M91" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S91" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S92" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D93" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" t="s">
         <v>131</v>
       </c>
-      <c r="E93" t="s">
-        <v>138</v>
-      </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H93" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K93" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S93" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" t="s">
         <v>128</v>
       </c>
-      <c r="C94" t="s">
-        <v>129</v>
-      </c>
-      <c r="D94" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" t="s">
-        <v>135</v>
-      </c>
       <c r="F94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S94" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S95" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" t="s">
         <v>129</v>
       </c>
-      <c r="D96" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" t="s">
-        <v>136</v>
-      </c>
       <c r="F96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S96" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" t="s">
+        <v>132</v>
+      </c>
+      <c r="H97" t="s">
+        <v>132</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+      <c r="J97" t="s">
+        <v>133</v>
+      </c>
+      <c r="K97" t="s">
+        <v>132</v>
+      </c>
+      <c r="L97" t="s">
+        <v>132</v>
+      </c>
+      <c r="M97" t="s">
+        <v>133</v>
+      </c>
+      <c r="N97" t="s">
+        <v>133</v>
+      </c>
+      <c r="O97" t="s">
+        <v>133</v>
+      </c>
+      <c r="P97" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>132</v>
+      </c>
+      <c r="R97" t="s">
+        <v>132</v>
+      </c>
+      <c r="S97" t="s">
         <v>146</v>
-      </c>
-      <c r="F97" t="s">
-        <v>140</v>
-      </c>
-      <c r="G97" t="s">
-        <v>139</v>
-      </c>
-      <c r="H97" t="s">
-        <v>139</v>
-      </c>
-      <c r="I97" t="s">
-        <v>140</v>
-      </c>
-      <c r="J97" t="s">
-        <v>140</v>
-      </c>
-      <c r="K97" t="s">
-        <v>139</v>
-      </c>
-      <c r="L97" t="s">
-        <v>139</v>
-      </c>
-      <c r="M97" t="s">
-        <v>140</v>
-      </c>
-      <c r="N97" t="s">
-        <v>140</v>
-      </c>
-      <c r="O97" t="s">
-        <v>140</v>
-      </c>
-      <c r="P97" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>139</v>
-      </c>
-      <c r="R97" t="s">
-        <v>139</v>
-      </c>
-      <c r="S97" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" t="s">
         <v>128</v>
       </c>
-      <c r="C98" t="s">
-        <v>129</v>
-      </c>
-      <c r="D98" t="s">
-        <v>132</v>
-      </c>
-      <c r="E98" t="s">
-        <v>135</v>
-      </c>
       <c r="F98" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I98" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N98" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O98" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S98" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E99" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G99" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L99" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P99" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q99" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S99" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s">
         <v>128</v>
       </c>
-      <c r="C100" t="s">
-        <v>129</v>
-      </c>
-      <c r="D100" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" t="s">
-        <v>135</v>
-      </c>
       <c r="F100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S101" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" t="s">
         <v>129</v>
       </c>
-      <c r="D102" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" t="s">
-        <v>136</v>
-      </c>
       <c r="F102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S102" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
+        <v>122</v>
+      </c>
+      <c r="D103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E103" t="s">
         <v>129</v>
       </c>
-      <c r="D103" t="s">
-        <v>131</v>
-      </c>
-      <c r="E103" t="s">
-        <v>136</v>
-      </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G103" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q103" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R103" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S103" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S104" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" t="s">
         <v>129</v>
       </c>
-      <c r="D105" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" t="s">
-        <v>136</v>
-      </c>
       <c r="F105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S105" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D106" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G106" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q106" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R106" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S106" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" t="s">
         <v>128</v>
       </c>
-      <c r="C107" t="s">
-        <v>129</v>
-      </c>
-      <c r="D107" t="s">
-        <v>131</v>
-      </c>
-      <c r="E107" t="s">
-        <v>135</v>
-      </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J107" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K107" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M107" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S107" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" t="s">
         <v>129</v>
       </c>
-      <c r="D108" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" t="s">
-        <v>136</v>
-      </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S108" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D109" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E109" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G109" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q109" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S109" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S110" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E111" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S111" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E112" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S112" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E113" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I113" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J113" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M113" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O113" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S113" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
         <v>121</v>
       </c>
-      <c r="B114" t="s">
-        <v>128</v>
-      </c>
       <c r="C114" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D114" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E114" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S114" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E115" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S115" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" t="s">
         <v>123</v>
       </c>
-      <c r="B116" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" t="s">
         <v>130</v>
       </c>
-      <c r="D116" t="s">
-        <v>144</v>
-      </c>
-      <c r="E116" t="s">
-        <v>137</v>
-      </c>
       <c r="F116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I116" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K116" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M116" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S116" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
         <v>124</v>
       </c>
-      <c r="B117" t="s">
+      <c r="E117" t="s">
         <v>128</v>
       </c>
-      <c r="C117" t="s">
-        <v>130</v>
-      </c>
-      <c r="D117" t="s">
-        <v>131</v>
-      </c>
-      <c r="E117" t="s">
-        <v>135</v>
-      </c>
       <c r="F117" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I117" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O117" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P117" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S117" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D118" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S118" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" t="s">
         <v>126</v>
       </c>
-      <c r="B119" t="s">
-        <v>128</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="E119" t="s">
         <v>129</v>
       </c>
-      <c r="D119" t="s">
-        <v>133</v>
-      </c>
-      <c r="E119" t="s">
-        <v>136</v>
-      </c>
       <c r="F119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S119" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" t="s">
+        <v>125</v>
+      </c>
+      <c r="E120" t="s">
         <v>129</v>
       </c>
-      <c r="D120" t="s">
-        <v>132</v>
-      </c>
-      <c r="E120" t="s">
-        <v>136</v>
-      </c>
       <c r="F120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S120" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" t="s">
         <v>130</v>
       </c>
-      <c r="D121" t="s">
-        <v>144</v>
-      </c>
-      <c r="E121" t="s">
-        <v>137</v>
-      </c>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J121" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M121" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S121" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F121" xr:uid="{BF9C01B7-9275-46B0-9F79-B325714A4911}"/>
+  <autoFilter ref="S1:S121" xr:uid="{4E975147-1E37-4D10-9EA6-FF90094F61B7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Datasets/comic_dataset_1.xlsx
+++ b/Datasets/comic_dataset_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noell\PycharmProjects\superheroes\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AF7502-4FC0-4DFD-9095-A14907FB7AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0CD4F-9265-462D-BA89-C1C15FB148F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="166">
   <si>
     <t>Property</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>Power_Score</t>
+  </si>
+  <si>
+    <t>Semi</t>
   </si>
 </sst>
 </file>
@@ -877,8 +880,8 @@
   <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="F1:T1"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1043,7 @@
         <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
         <v>133</v>
@@ -4285,7 +4288,7 @@
         <v>128</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="G58" t="s">
         <v>132</v>
@@ -6173,7 +6176,7 @@
         <v>127</v>
       </c>
       <c r="F90" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="G90" t="s">
         <v>132</v>
@@ -6586,7 +6589,7 @@
         <v>137</v>
       </c>
       <c r="F97" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="G97" t="s">
         <v>132</v>
@@ -6645,7 +6648,7 @@
         <v>128</v>
       </c>
       <c r="F98" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="G98" t="s">
         <v>132</v>
@@ -7176,7 +7179,7 @@
         <v>128</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="G107" t="s">
         <v>132</v>

--- a/Datasets/comic_dataset_1.xlsx
+++ b/Datasets/comic_dataset_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noell\PycharmProjects\superheroes\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787203B8-E1A3-45D4-A656-E6ACF1B068DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0CD4F-9265-462D-BA89-C1C15FB148F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$1:$S$121</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="166">
   <si>
     <t>Property</t>
   </si>
@@ -207,27 +207,6 @@
     <t>Immortality</t>
   </si>
   <si>
-    <t>Magic/Mystic Powers</t>
-  </si>
-  <si>
-    <t>Super Strength</t>
-  </si>
-  <si>
-    <t>Super Speed</t>
-  </si>
-  <si>
-    <t>Healing Factor</t>
-  </si>
-  <si>
-    <t>Telekinesis/Telepathy</t>
-  </si>
-  <si>
-    <t>Ability to Alter Space/Time/Reality</t>
-  </si>
-  <si>
-    <t>Combat Skills</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
@@ -456,12 +435,6 @@
     <t>Android</t>
   </si>
   <si>
-    <t>Innate Powers</t>
-  </si>
-  <si>
-    <t>Use of Combative Weapons</t>
-  </si>
-  <si>
     <t>Neither</t>
   </si>
   <si>
@@ -471,15 +444,9 @@
     <t>Demon</t>
   </si>
   <si>
-    <t>Ability to Alter Matter/Energy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Green Latern (John Stewart) </t>
   </si>
   <si>
-    <t>Magical or Powerful Weapons/Items</t>
-  </si>
-  <si>
     <t>Entity</t>
   </si>
   <si>
@@ -492,34 +459,73 @@
     <t>Drax the Destroyer</t>
   </si>
   <si>
-    <t>Beyond Omega</t>
-  </si>
-  <si>
     <t>Loki</t>
   </si>
   <si>
     <t>Maria Hill</t>
   </si>
   <si>
-    <t>Superhuman</t>
-  </si>
-  <si>
-    <t>Above Superhuman</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Athlete</t>
-  </si>
-  <si>
     <t>Lightning</t>
   </si>
   <si>
-    <t>nonspecified</t>
-  </si>
-  <si>
-    <t>Use of Enhanced Tech</t>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Innate_Powers</t>
+  </si>
+  <si>
+    <t>Magic_Or_Mystic_Powers</t>
+  </si>
+  <si>
+    <t>Use_of_Enhanced_Tech</t>
+  </si>
+  <si>
+    <t>Use_of_Combative_Weapons</t>
+  </si>
+  <si>
+    <t>Magical_or_Powerful_Weapons_Items</t>
+  </si>
+  <si>
+    <t>Super_Strength</t>
+  </si>
+  <si>
+    <t>Combat_Skills</t>
+  </si>
+  <si>
+    <t>Super_Speed</t>
+  </si>
+  <si>
+    <t>Healing_Factor</t>
+  </si>
+  <si>
+    <t>Telekinesis_Telepathy</t>
+  </si>
+  <si>
+    <t>Ability_to_Alter_Matter_or_Energy</t>
+  </si>
+  <si>
+    <t>Ability_to_Alter_Space_Time_Reality</t>
+  </si>
+  <si>
+    <t>Power_Score</t>
+  </si>
+  <si>
+    <t>Semi</t>
   </si>
 </sst>
 </file>
@@ -871,11 +877,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S10" sqref="S10"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,9 +902,10 @@
     <col min="17" max="17" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -918,928 +925,931 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" t="s">
         <v>163</v>
       </c>
-      <c r="J1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" t="s">
-        <v>64</v>
-      </c>
       <c r="S1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="T1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" t="s">
         <v>146</v>
       </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
         <v>129</v>
       </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>136</v>
-      </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
         <v>129</v>
       </c>
-      <c r="D12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" t="s">
         <v>136</v>
       </c>
-      <c r="F12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" t="s">
-        <v>140</v>
-      </c>
-      <c r="L12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" t="s">
-        <v>140</v>
-      </c>
-      <c r="N12" t="s">
-        <v>140</v>
-      </c>
-      <c r="O12" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>139</v>
-      </c>
-      <c r="R12" t="s">
-        <v>139</v>
-      </c>
-      <c r="S12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
         <v>130</v>
       </c>
-      <c r="D15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
         <v>130</v>
       </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>137</v>
-      </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1847,58 +1857,58 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S17" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1906,58 +1916,58 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1965,58 +1975,58 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>136</v>
-      </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S19" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2024,58 +2034,58 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2083,58 +2093,58 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" t="s">
         <v>129</v>
       </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>136</v>
-      </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S21" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2142,58 +2152,58 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S22" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2201,58 +2211,58 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2260,58 +2270,58 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S24" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2319,58 +2329,58 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -2378,58 +2388,58 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S26" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -2437,58 +2447,58 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" t="s">
         <v>131</v>
       </c>
-      <c r="E27" t="s">
-        <v>138</v>
-      </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S27" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -2496,58 +2506,58 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S28" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2555,58 +2565,58 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S29" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -2614,58 +2624,58 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S30" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -2673,58 +2683,58 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S31" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -2732,58 +2742,58 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S32" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -2791,58 +2801,58 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S33" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -2850,58 +2860,58 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S34" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -2909,58 +2919,58 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
         <v>130</v>
       </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s">
-        <v>137</v>
-      </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I35" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M35" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S35" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -2968,58 +2978,58 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
         <v>130</v>
       </c>
-      <c r="D36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" t="s">
-        <v>137</v>
-      </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R36" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S36" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -3027,58 +3037,58 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
         <v>130</v>
       </c>
-      <c r="D37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" t="s">
-        <v>137</v>
-      </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J37" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M37" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R37" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -3086,58 +3096,58 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S38" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -3145,58 +3155,58 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M39" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S39" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -3204,58 +3214,58 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S40" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -3263,58 +3273,58 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
         <v>129</v>
       </c>
-      <c r="D41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" t="s">
+        <v>133</v>
+      </c>
+      <c r="N41" t="s">
+        <v>133</v>
+      </c>
+      <c r="O41" t="s">
+        <v>133</v>
+      </c>
+      <c r="P41" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>132</v>
+      </c>
+      <c r="R41" t="s">
+        <v>133</v>
+      </c>
+      <c r="S41" t="s">
         <v>136</v>
-      </c>
-      <c r="F41" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" t="s">
-        <v>139</v>
-      </c>
-      <c r="I41" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" t="s">
-        <v>140</v>
-      </c>
-      <c r="K41" t="s">
-        <v>139</v>
-      </c>
-      <c r="L41" t="s">
-        <v>139</v>
-      </c>
-      <c r="M41" t="s">
-        <v>140</v>
-      </c>
-      <c r="N41" t="s">
-        <v>140</v>
-      </c>
-      <c r="O41" t="s">
-        <v>140</v>
-      </c>
-      <c r="P41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>139</v>
-      </c>
-      <c r="R41" t="s">
-        <v>140</v>
-      </c>
-      <c r="S41" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -3322,58 +3332,58 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S42" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -3381,58 +3391,58 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H43" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q43" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S43" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -3440,58 +3450,58 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I44" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M44" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R44" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S44" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -3499,58 +3509,58 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S45" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -3558,117 +3568,117 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" t="s">
         <v>130</v>
       </c>
-      <c r="D46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" t="s">
-        <v>137</v>
-      </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q46" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S46" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q47" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S47" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -3676,58 +3686,58 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q48" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S48" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -3735,117 +3745,117 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S49" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
         <v>129</v>
       </c>
-      <c r="D50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" t="s">
-        <v>136</v>
-      </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q50" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S50" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -3853,58 +3863,58 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
         <v>129</v>
       </c>
-      <c r="D51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" t="s">
-        <v>136</v>
-      </c>
       <c r="F51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S51" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -3912,58 +3922,58 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M52" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S52" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -3971,58 +3981,58 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q53" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S53" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -4030,58 +4040,58 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R54" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S54" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -4089,58 +4099,58 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q55" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R55" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S55" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -4148,2005 +4158,2005 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
         <v>130</v>
       </c>
-      <c r="D56" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" t="s">
-        <v>137</v>
-      </c>
       <c r="F56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J56" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R56" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S56" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S57" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" t="s">
         <v>128</v>
       </c>
-      <c r="C58" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" t="s">
-        <v>135</v>
-      </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="G58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S58" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S59" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R60" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S60" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S61" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G62" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M62" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q62" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R62" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S62" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S63" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M64" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q64" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S64" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q65" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R65" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S65" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S66" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S67" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S68" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" t="s">
         <v>129</v>
       </c>
-      <c r="D69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" t="s">
-        <v>136</v>
-      </c>
       <c r="F69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S69" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O70" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R70" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R71" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S71" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" t="s">
         <v>129</v>
       </c>
-      <c r="D72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" t="s">
-        <v>136</v>
-      </c>
       <c r="F72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S72" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S73" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" t="s">
         <v>131</v>
       </c>
-      <c r="E74" t="s">
-        <v>138</v>
-      </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q74" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R74" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S74" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M75" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S75" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s">
         <v>131</v>
       </c>
-      <c r="E76" t="s">
-        <v>138</v>
-      </c>
       <c r="F76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O76" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" t="s">
+        <v>132</v>
+      </c>
+      <c r="H77" t="s">
+        <v>133</v>
+      </c>
+      <c r="I77" t="s">
+        <v>133</v>
+      </c>
+      <c r="J77" t="s">
+        <v>133</v>
+      </c>
+      <c r="K77" t="s">
+        <v>133</v>
+      </c>
+      <c r="L77" t="s">
+        <v>132</v>
+      </c>
+      <c r="M77" t="s">
+        <v>132</v>
+      </c>
+      <c r="N77" t="s">
+        <v>133</v>
+      </c>
+      <c r="O77" t="s">
+        <v>133</v>
+      </c>
+      <c r="P77" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>132</v>
+      </c>
+      <c r="R77" t="s">
+        <v>132</v>
+      </c>
+      <c r="S77" t="s">
         <v>150</v>
-      </c>
-      <c r="F77" t="s">
-        <v>140</v>
-      </c>
-      <c r="G77" t="s">
-        <v>139</v>
-      </c>
-      <c r="H77" t="s">
-        <v>140</v>
-      </c>
-      <c r="I77" t="s">
-        <v>140</v>
-      </c>
-      <c r="J77" t="s">
-        <v>140</v>
-      </c>
-      <c r="K77" t="s">
-        <v>140</v>
-      </c>
-      <c r="L77" t="s">
-        <v>139</v>
-      </c>
-      <c r="M77" t="s">
-        <v>139</v>
-      </c>
-      <c r="N77" t="s">
-        <v>140</v>
-      </c>
-      <c r="O77" t="s">
-        <v>140</v>
-      </c>
-      <c r="P77" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>139</v>
-      </c>
-      <c r="R77" t="s">
-        <v>139</v>
-      </c>
-      <c r="S77" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G78" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M78" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q78" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S78" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G79" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O79" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q79" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" t="s">
         <v>129</v>
       </c>
-      <c r="D80" t="s">
-        <v>132</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" t="s">
+        <v>133</v>
+      </c>
+      <c r="I80" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K80" t="s">
+        <v>133</v>
+      </c>
+      <c r="L80" t="s">
+        <v>132</v>
+      </c>
+      <c r="M80" t="s">
+        <v>132</v>
+      </c>
+      <c r="N80" t="s">
+        <v>132</v>
+      </c>
+      <c r="O80" t="s">
+        <v>132</v>
+      </c>
+      <c r="P80" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>133</v>
+      </c>
+      <c r="R80" t="s">
+        <v>132</v>
+      </c>
+      <c r="S80" t="s">
         <v>136</v>
-      </c>
-      <c r="F80" t="s">
-        <v>140</v>
-      </c>
-      <c r="G80" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" t="s">
-        <v>140</v>
-      </c>
-      <c r="I80" t="s">
-        <v>140</v>
-      </c>
-      <c r="J80" t="s">
-        <v>140</v>
-      </c>
-      <c r="K80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L80" t="s">
-        <v>139</v>
-      </c>
-      <c r="M80" t="s">
-        <v>139</v>
-      </c>
-      <c r="N80" t="s">
-        <v>139</v>
-      </c>
-      <c r="O80" t="s">
-        <v>139</v>
-      </c>
-      <c r="P80" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>140</v>
-      </c>
-      <c r="R80" t="s">
-        <v>139</v>
-      </c>
-      <c r="S80" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" t="s">
         <v>129</v>
       </c>
-      <c r="D81" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" t="s">
-        <v>136</v>
-      </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R81" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S81" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O82" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R82" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S82" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G83" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M83" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S83" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I84" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J84" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M84" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R84" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S84" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J85" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M85" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P85" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R85" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S85" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E86" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R86" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S86" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" t="s">
         <v>131</v>
       </c>
-      <c r="E87" t="s">
-        <v>138</v>
-      </c>
       <c r="F87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S87" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
         <v>131</v>
       </c>
-      <c r="E88" t="s">
-        <v>138</v>
-      </c>
       <c r="F88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q88" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S88" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N89" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S89" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
@@ -6154,1891 +6164,1891 @@
         <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="G90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R90" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S90" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" t="s">
         <v>130</v>
       </c>
-      <c r="D91" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" t="s">
-        <v>137</v>
-      </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I91" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J91" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M91" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R91" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S91" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O92" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S92" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D93" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" t="s">
         <v>131</v>
       </c>
-      <c r="E93" t="s">
-        <v>138</v>
-      </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H93" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K93" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R93" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S93" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" t="s">
         <v>128</v>
       </c>
-      <c r="C94" t="s">
-        <v>129</v>
-      </c>
-      <c r="D94" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" t="s">
-        <v>135</v>
-      </c>
       <c r="F94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N94" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R94" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S94" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N95" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R95" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S95" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" t="s">
         <v>129</v>
       </c>
-      <c r="D96" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" t="s">
-        <v>136</v>
-      </c>
       <c r="F96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P96" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R96" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S96" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" t="s">
+        <v>165</v>
+      </c>
+      <c r="G97" t="s">
+        <v>132</v>
+      </c>
+      <c r="H97" t="s">
+        <v>132</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+      <c r="J97" t="s">
+        <v>133</v>
+      </c>
+      <c r="K97" t="s">
+        <v>132</v>
+      </c>
+      <c r="L97" t="s">
+        <v>132</v>
+      </c>
+      <c r="M97" t="s">
+        <v>133</v>
+      </c>
+      <c r="N97" t="s">
+        <v>133</v>
+      </c>
+      <c r="O97" t="s">
+        <v>133</v>
+      </c>
+      <c r="P97" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>132</v>
+      </c>
+      <c r="R97" t="s">
+        <v>132</v>
+      </c>
+      <c r="S97" t="s">
         <v>146</v>
-      </c>
-      <c r="F97" t="s">
-        <v>140</v>
-      </c>
-      <c r="G97" t="s">
-        <v>139</v>
-      </c>
-      <c r="H97" t="s">
-        <v>139</v>
-      </c>
-      <c r="I97" t="s">
-        <v>140</v>
-      </c>
-      <c r="J97" t="s">
-        <v>140</v>
-      </c>
-      <c r="K97" t="s">
-        <v>139</v>
-      </c>
-      <c r="L97" t="s">
-        <v>139</v>
-      </c>
-      <c r="M97" t="s">
-        <v>140</v>
-      </c>
-      <c r="N97" t="s">
-        <v>140</v>
-      </c>
-      <c r="O97" t="s">
-        <v>140</v>
-      </c>
-      <c r="P97" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>139</v>
-      </c>
-      <c r="R97" t="s">
-        <v>139</v>
-      </c>
-      <c r="S97" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" t="s">
         <v>128</v>
       </c>
-      <c r="C98" t="s">
-        <v>129</v>
-      </c>
-      <c r="D98" t="s">
-        <v>132</v>
-      </c>
-      <c r="E98" t="s">
-        <v>135</v>
-      </c>
       <c r="F98" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="G98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I98" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N98" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O98" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R98" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S98" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E99" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G99" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L99" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P99" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q99" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R99" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S99" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s">
         <v>128</v>
       </c>
-      <c r="C100" t="s">
-        <v>129</v>
-      </c>
-      <c r="D100" t="s">
-        <v>131</v>
-      </c>
-      <c r="E100" t="s">
-        <v>135</v>
-      </c>
       <c r="F100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O100" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R100" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O101" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R101" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S101" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" t="s">
         <v>129</v>
       </c>
-      <c r="D102" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" t="s">
-        <v>136</v>
-      </c>
       <c r="F102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q102" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R102" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S102" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
+        <v>122</v>
+      </c>
+      <c r="D103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E103" t="s">
         <v>129</v>
       </c>
-      <c r="D103" t="s">
-        <v>131</v>
-      </c>
-      <c r="E103" t="s">
-        <v>136</v>
-      </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G103" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q103" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R103" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S103" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S104" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" t="s">
         <v>129</v>
       </c>
-      <c r="D105" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" t="s">
-        <v>136</v>
-      </c>
       <c r="F105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q105" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R105" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S105" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D106" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G106" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P106" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q106" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R106" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S106" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" t="s">
         <v>128</v>
       </c>
-      <c r="C107" t="s">
-        <v>129</v>
-      </c>
-      <c r="D107" t="s">
-        <v>131</v>
-      </c>
-      <c r="E107" t="s">
-        <v>135</v>
-      </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="G107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J107" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K107" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M107" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R107" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S107" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" t="s">
         <v>129</v>
       </c>
-      <c r="D108" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" t="s">
-        <v>136</v>
-      </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q108" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R108" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S108" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D109" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E109" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G109" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q109" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R109" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S109" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q110" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R110" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S110" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E111" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P111" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R111" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S111" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E112" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q112" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R112" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S112" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E113" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I113" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J113" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M113" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O113" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S113" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
         <v>121</v>
       </c>
-      <c r="B114" t="s">
-        <v>128</v>
-      </c>
       <c r="C114" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D114" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E114" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N114" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R114" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S114" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E115" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P115" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R115" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S115" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" t="s">
         <v>123</v>
       </c>
-      <c r="B116" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" t="s">
         <v>130</v>
       </c>
-      <c r="D116" t="s">
-        <v>144</v>
-      </c>
-      <c r="E116" t="s">
-        <v>137</v>
-      </c>
       <c r="F116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I116" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K116" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M116" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R116" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S116" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
         <v>124</v>
       </c>
-      <c r="B117" t="s">
+      <c r="E117" t="s">
         <v>128</v>
       </c>
-      <c r="C117" t="s">
-        <v>130</v>
-      </c>
-      <c r="D117" t="s">
-        <v>131</v>
-      </c>
-      <c r="E117" t="s">
-        <v>135</v>
-      </c>
       <c r="F117" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I117" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O117" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P117" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R117" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S117" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D118" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S118" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" t="s">
         <v>126</v>
       </c>
-      <c r="B119" t="s">
-        <v>128</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="E119" t="s">
         <v>129</v>
       </c>
-      <c r="D119" t="s">
-        <v>133</v>
-      </c>
-      <c r="E119" t="s">
-        <v>136</v>
-      </c>
       <c r="F119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S119" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" t="s">
+        <v>125</v>
+      </c>
+      <c r="E120" t="s">
         <v>129</v>
       </c>
-      <c r="D120" t="s">
-        <v>132</v>
-      </c>
-      <c r="E120" t="s">
-        <v>136</v>
-      </c>
       <c r="F120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S120" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" t="s">
         <v>130</v>
       </c>
-      <c r="D121" t="s">
-        <v>144</v>
-      </c>
-      <c r="E121" t="s">
-        <v>137</v>
-      </c>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J121" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M121" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="S121" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F121" xr:uid="{BF9C01B7-9275-46B0-9F79-B325714A4911}"/>
+  <autoFilter ref="S1:S121" xr:uid="{4E975147-1E37-4D10-9EA6-FF90094F61B7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
